--- a/inputs/0 - Expansão MS/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão MS/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
   <workbookPr/>
   <xr:revisionPtr revIDLastSave="248" documentId="11_58DE7C178224F78845EEEC893CDEFD896A2888DC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9845D67-5C6B-4C05-B6AC-09EB5141A046}"/>
   <bookViews>
